--- a/output/tables/table_appendix_bra_chn_ind_usa_2006-2018.xlsx
+++ b/output/tables/table_appendix_bra_chn_ind_usa_2006-2018.xlsx
@@ -56,22 +56,22 @@
     <t xml:space="preserve">USA Tonnes</t>
   </si>
   <si>
-    <t xml:space="preserve">$405.89B (25%)</t>
+    <t xml:space="preserve">$406.19B (25%)</t>
   </si>
   <si>
     <t xml:space="preserve">$85.36B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$217.06M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$229.72B (14%)</t>
+    <t xml:space="preserve">$215.60M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$227.42B (14%)</t>
   </si>
   <si>
     <t xml:space="preserve">$351.23B (24%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$259.36M (11%)</t>
+    <t xml:space="preserve">$258.17M (11%)</t>
   </si>
   <si>
     <t xml:space="preserve">$0.00B (0%)</t>
@@ -80,412 +80,412 @@
     <t xml:space="preserve">$112.60B (8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$286.50M (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$250.04B (15%)</t>
+    <t xml:space="preserve">$282.71M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$249.92B (15%)</t>
   </si>
   <si>
     <t xml:space="preserve">$181.04B (12%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$265.12M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$408.12B (26%)</t>
+    <t xml:space="preserve">$268.09M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$408.43B (26%)</t>
   </si>
   <si>
     <t xml:space="preserve">$83.67B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$216.31M (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$230.62B (15%)</t>
+    <t xml:space="preserve">$214.90M (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$228.32B (14%)</t>
   </si>
   <si>
     <t xml:space="preserve">$346.96B (24%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$258.86M (11%)</t>
+    <t xml:space="preserve">$257.65M (12%)</t>
   </si>
   <si>
     <t xml:space="preserve">$105.65B (7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$273.70M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$248.07B (16%)</t>
+    <t xml:space="preserve">$269.87M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$247.95B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$177.44B (12%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$261.86M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$332.35B (22%)</t>
+    <t xml:space="preserve">$264.81M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$332.60B (22%)</t>
   </si>
   <si>
     <t xml:space="preserve">$80.28B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$188.92M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$233.58B (16%)</t>
+    <t xml:space="preserve">$187.50M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$231.24B (15%)</t>
   </si>
   <si>
     <t xml:space="preserve">$347.22B (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$259.63M (12%)</t>
+    <t xml:space="preserve">$258.63M (12%)</t>
   </si>
   <si>
     <t xml:space="preserve">$99.18B (7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$261.79M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$246.28B (17%)</t>
+    <t xml:space="preserve">$257.85M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$246.16B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$172.71B (12%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$257.86M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$326.30B (22%)</t>
+    <t xml:space="preserve">$260.80M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$326.55B (22%)</t>
   </si>
   <si>
     <t xml:space="preserve">$80.17B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$187.48M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$235.41B (16%)</t>
+    <t xml:space="preserve">$186.06M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$233.28B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$348.24B (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$262.39M (12%)</t>
+    <t xml:space="preserve">$261.36M (12%)</t>
   </si>
   <si>
     <t xml:space="preserve">$93.74B (7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$251.23M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$239.24B (16%)</t>
+    <t xml:space="preserve">$247.25M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$239.12B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$166.48B (12%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$251.64M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$315.54B (22%)</t>
+    <t xml:space="preserve">$254.55M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$315.78B (22%)</t>
   </si>
   <si>
     <t xml:space="preserve">$79.44B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$183.41M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$234.56B (16%)</t>
+    <t xml:space="preserve">$182.02M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$232.13B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$349.12B (26%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$267.04M (13%)</t>
+    <t xml:space="preserve">$265.71M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$88.75B (7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$241.01M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$242.06B (17%)</t>
+    <t xml:space="preserve">$237.20M (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$241.94B (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">$168.94B (12%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$250.08M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$303.60B (21%)</t>
+    <t xml:space="preserve">$252.94M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$303.83B (21%)</t>
   </si>
   <si>
     <t xml:space="preserve">$77.72B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$177.38M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$234.98B (17%)</t>
+    <t xml:space="preserve">$176.01M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$233.02B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$342.87B (26%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$263.55M (13%)</t>
+    <t xml:space="preserve">$262.33M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$83.79B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$232.24M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$231.13B (16%)</t>
+    <t xml:space="preserve">$228.67M (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$231.02B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$167.94B (13%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$243.78M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$301.98B (21%)</t>
+    <t xml:space="preserve">$246.57M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$302.21B (21%)</t>
   </si>
   <si>
     <t xml:space="preserve">$74.85B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$174.02M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$236.34B (17%)</t>
+    <t xml:space="preserve">$172.67M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$233.91B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$338.76B (26%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$264.22M (13%)</t>
+    <t xml:space="preserve">$262.79M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$80.61B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$226.61M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$232.64B (16%)</t>
+    <t xml:space="preserve">$222.57M (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$232.53B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$167.81B (13%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$243.74M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$303.88B (21%)</t>
+    <t xml:space="preserve">$246.54M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$304.11B (21%)</t>
   </si>
   <si>
     <t xml:space="preserve">$73.69B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$174.35M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$235.34B (17%)</t>
+    <t xml:space="preserve">$172.96M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$232.84B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$326.70B (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$258.25M (13%)</t>
+    <t xml:space="preserve">$256.75M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$77.73B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$221.96M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$230.55B (16%)</t>
+    <t xml:space="preserve">$217.95M (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$230.44B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$166.61B (13%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$240.87M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$299.50B (21%)</t>
+    <t xml:space="preserve">$243.87M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$299.73B (21%)</t>
   </si>
   <si>
     <t xml:space="preserve">$71.67B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$170.45M (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$242.38B (17%)</t>
+    <t xml:space="preserve">$169.10M (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$239.74B (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">$326.29B (26%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$259.63M (13%)</t>
+    <t xml:space="preserve">$258.05M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$73.96B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$215.58M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$227.84B (16%)</t>
+    <t xml:space="preserve">$211.58M (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$227.72B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$164.44B (13%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$236.97M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$286.82B (20%)</t>
+    <t xml:space="preserve">$239.92M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$287.04B (20%)</t>
   </si>
   <si>
     <t xml:space="preserve">$68.77B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$162.07M (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$249.10B (18%)</t>
+    <t xml:space="preserve">$160.74M (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$246.50B (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">$318.24B (26%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$259.17M (13%)</t>
+    <t xml:space="preserve">$257.57M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$70.90B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$209.95M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$237.79B (17%)</t>
+    <t xml:space="preserve">$205.99M (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$237.66B (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">$164.55B (13%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$238.32M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$278.78B (20%)</t>
+    <t xml:space="preserve">$241.10M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$278.99B (20%)</t>
   </si>
   <si>
     <t xml:space="preserve">$68.96B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$158.74M (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$238.89B (17%)</t>
+    <t xml:space="preserve">$157.40M (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$244.38B (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">$307.43B (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$249.85M (13%)</t>
+    <t xml:space="preserve">$251.17M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$68.16B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$205.45M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$235.96B (17%)</t>
+    <t xml:space="preserve">$201.50M (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$235.84B (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">$166.32B (14%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$240.03M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$270.39B (20%)</t>
+    <t xml:space="preserve">$242.76M (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$270.59B (20%)</t>
   </si>
   <si>
     <t xml:space="preserve">$66.08B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$152.10M (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$230.78B (17%)</t>
+    <t xml:space="preserve">$150.76M (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$236.50B (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">$293.42B (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$239.13M (13%)</t>
+    <t xml:space="preserve">$240.52M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$65.78B (6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$201.10M (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$214.18B (16%)</t>
+    <t xml:space="preserve">$197.18M (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$214.01B (16%)</t>
   </si>
   <si>
     <t xml:space="preserve">$162.81B (14%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$218.34M (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$277.27B (21%)</t>
+    <t xml:space="preserve">$220.96M (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$277.48B (20%)</t>
   </si>
   <si>
     <t xml:space="preserve">$63.02B (5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$153.16M (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$244.01B (18%)</t>
+    <t xml:space="preserve">$151.78M (8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$249.82B (18%)</t>
   </si>
   <si>
     <t xml:space="preserve">$293.53B (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$243.53M (13%)</t>
+    <t xml:space="preserve">$244.92M (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">$61.40B (5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$191.35M (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$206.37B (15%)</t>
+    <t xml:space="preserve">$187.49M (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$206.21B (15%)</t>
   </si>
   <si>
     <t xml:space="preserve">$157.00B (14%)</t>
   </si>
   <si>
-    <t xml:space="preserve">$212.18M (12%)</t>
+    <t xml:space="preserve">$214.77M (12%)</t>
   </si>
 </sst>
 </file>
